--- a/public/fake_data.xlsx
+++ b/public/fake_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -38,7 +38,16 @@
     <t>branch_id</t>
   </si>
   <si>
-    <t>Gurung Kamini</t>
+    <t>Aishwarya Singh Bhati</t>
+  </si>
+  <si>
+    <t>aishwarya.singh@sitpune.edu.in</t>
+  </si>
+  <si>
+    <t>Akshita Pradhan</t>
+  </si>
+  <si>
+    <t>akshita.pradhan@sitpune.edu.in</t>
   </si>
 </sst>
 </file>
@@ -48,7 +57,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -73,6 +82,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -120,12 +136,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,17 +166,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.24489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0918367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="3" style="0" width="17.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6428571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3367346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3928571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2755102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
@@ -185,16 +208,37 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>345</v>
+        <v>135</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>790</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="aishwarya.singh@sitpune.edu.in"/>
+    <hyperlink ref="C3" r:id="rId2" display="akshita.pradhan@sitpune.edu.in"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/fake_data.xlsx
+++ b/public/fake_data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>id</t>
   </si>
@@ -37,18 +37,6 @@
   <si>
     <t>branch_id</t>
   </si>
-  <si>
-    <t>Aishwarya Singh Bhati</t>
-  </si>
-  <si>
-    <t>aishwarya.singh@sitpune.edu.in</t>
-  </si>
-  <si>
-    <t>Akshita Pradhan</t>
-  </si>
-  <si>
-    <t>akshita.pradhan@sitpune.edu.in</t>
-  </si>
 </sst>
 </file>
 
@@ -57,12 +45,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -82,13 +69,6 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -136,16 +116,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -166,21 +142,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.24489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6428571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.3367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3928571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -206,39 +176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>135</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>790</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="aishwarya.singh@sitpune.edu.in"/>
-    <hyperlink ref="C3" r:id="rId2" display="akshita.pradhan@sitpune.edu.in"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/public/fake_data.xlsx
+++ b/public/fake_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="223" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,23 @@
   </si>
   <si>
     <t>branch_id</t>
+  </si>
+  <si>
+    <t>Aashish Sachdeva</t>
+  </si>
+  <si>
+    <r>
+      <t>aashish.sachdeva@sitpune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>.edu.in</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -45,11 +62,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -69,6 +87,13 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -116,12 +141,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -142,15 +171,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -176,7 +207,21 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="aashish.sachdeva@sitpune"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
